--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\c++_almaz_antei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58183597-74CC-4641-A31C-E9559E843E4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEBB23-B3BD-4368-931D-79697E355F23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Бируля Антон Анатольевич</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>Вихров Константин</t>
+  </si>
+  <si>
+    <t>Беляева Ксения Анатольевна</t>
+  </si>
+  <si>
+    <t>Детков Антон Викторович</t>
+  </si>
+  <si>
+    <t>Богомаз Дмитрий</t>
+  </si>
+  <si>
+    <t>Зыбинский Иван Александрович</t>
+  </si>
+  <si>
+    <t>Денисов Николай Николаевич</t>
+  </si>
+  <si>
+    <t>Хремина Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Разумов В.Г.</t>
+  </si>
+  <si>
+    <t>Красный Д.В.</t>
+  </si>
+  <si>
+    <t>Пазухин Максим Павлович</t>
+  </si>
+  <si>
+    <t>Мелконян В.Г.</t>
   </si>
 </sst>
 </file>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,6 +505,12 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -486,10 +522,19 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -500,6 +545,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -519,6 +567,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -527,6 +578,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -535,6 +589,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -559,6 +616,9 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -575,6 +635,9 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -583,6 +646,9 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -595,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -603,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -611,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -619,15 +685,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -638,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -648,8 +717,11 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -660,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -668,6 +740,113 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\c++_almaz_antei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEBB23-B3BD-4368-931D-79697E355F23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6660CEFD-871A-4A0B-AF32-9883ECA8399B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="42">
   <si>
     <t>Бируля Антон Анатольевич</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Вараскин Илья Олегович</t>
   </si>
   <si>
-    <t>Корольков Иван</t>
-  </si>
-  <si>
     <t>Исрафилов Руслан Рамизович</t>
   </si>
   <si>
@@ -130,6 +127,30 @@
   </si>
   <si>
     <t>Мелконян В.Г.</t>
+  </si>
+  <si>
+    <t>Шевчук Анастасия Петровна</t>
+  </si>
+  <si>
+    <t>Бочков Иван Андреевич</t>
+  </si>
+  <si>
+    <t>Корольков Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Ляпин А.Д.</t>
+  </si>
+  <si>
+    <t>Злобин Яков Николаевич</t>
+  </si>
+  <si>
+    <t>Ильин Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Шарипов Артур</t>
+  </si>
+  <si>
+    <t>Аверин Александр Эдуардович</t>
   </si>
 </sst>
 </file>
@@ -447,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,18 +507,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -514,7 +538,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -529,304 +553,388 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -834,25 +942,129 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H41">
+    <sortCondition ref="A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
